--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8625" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="22920" windowHeight="10605" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TREINAMENTO- RESPOSTA A CARGA" sheetId="1" r:id="rId1"/>
     <sheet name="TREINAMENTO APOIO TERMINAL" sheetId="2" r:id="rId2"/>
     <sheet name="TREINAMENTO APOIO MEDIO" sheetId="3" r:id="rId3"/>
-    <sheet name="COMPARAÇÃO - XLS" sheetId="4" r:id="rId4"/>
+    <sheet name="COMPARACAO - XLS" sheetId="4" r:id="rId4"/>
     <sheet name="VIL COMPLETO - AI" sheetId="5" r:id="rId5"/>
     <sheet name="FASE DE BALANÇO 1" sheetId="6" r:id="rId6"/>
     <sheet name="FASE DE BALANÇO 2" sheetId="7" r:id="rId7"/>
@@ -64,8 +64,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -101,70 +101,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,9 +118,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,8 +132,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,8 +179,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,9 +223,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,7 +247,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,79 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,37 +391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,43 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -480,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,187 +538,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -813,6 +812,4655 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.212195428696413"/>
+          <c:y val="0.00694444444444444"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COMPARACAO - XLS'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grande</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'COMPARACAO - XLS'!$B$2:$B$1265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1264"/>
+                <c:pt idx="0">
+                  <c:v>6.00003548617206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0001660069141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.00053131448501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.00132859127426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.00279553727551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.00518185141333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.00871959130947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.01359688142025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.01993763618447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.02778860655264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.03711415936365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0477986447294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.05965579461792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.07244416393744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.08588713922478</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0996955865453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1135909234203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.12732637274834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.14070439540623</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.15358873784329</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.16591009119691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.17766498397987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.18890818725499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.19973955367281</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2102867639053</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.22068583010322</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.23106135057891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.24150842252883</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.25207784328281</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.26276581700949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.27350887721161</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2841841907662</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.29461490429544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.30457980094949</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.31382628704174</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.32208561087248</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.32908919831956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.33458504118479</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.33835316873539</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.34021934657161</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.34006627015004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.33784166581125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.33356290088322</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.32731793785194</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.31926270871654</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.30961517078725</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.29864639287507</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.28666903242433</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.27402356448456</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.26106266605306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.24813426013158</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.23556387311202</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.22363713608915</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.21258343393078</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.20256183221158</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.19365044563859</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.18584032118156</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.17903469473741</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.17305417620186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.16764807432407</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.16251172514301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.15730933894282</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.15170150866216</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.14537611049359</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.13808089091014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.12965562452697</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.12006141025572</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.10940451841391</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.09795228491444</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.08613894591505</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.07456005819004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.06395522259962</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.05518008880471</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.04916985100041</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.0468974008276</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.04932980536507</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.05738678491696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.07190446753076</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.09360704197865</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.12308815280754</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.1608030759726</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.20707193868915</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.26209351982572</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.32596846875361</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.39873008093311</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.48038006026525</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.57092601955915</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.67041691723146</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.77897235361892</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.89680182828008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.0242108096164</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.16159177569943</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.30940007423574</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.46811623025168</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.63819789621918</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.82002575461533</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.0138482143705</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.21972965704503</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.43750635070678</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.66675312244782</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.90676269052745</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.15653842320465</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.41480036642679</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.68000373259639</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.95036864717789</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.223919714078</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.4985337519988</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7719937677874</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.0420468553894</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.3064633314392</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11.5630941897082</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.809924007563</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.0451168225442</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.2670531747946</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.4743573635744</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.6659148418466</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12.8408804311898</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.9986785808006</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13.1389971743373</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13.2617764159643</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13.3671941515903</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.4556486719408</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13.5277396749127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.5842477112488</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.6261121730085</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13.6544077671966</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.6703194780671</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.6751162518407</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.6701239733288</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.6566986258552</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.6362006952126</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.6099718007738</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.5793142101508</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.5454734126093</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.5096234434767</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.4728543169248</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.4361608413929</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.4004323090246</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.3664430583132</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.3348446155495</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13.3061608336375</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.2807879182491</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13.2590012572176</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>13.2409704764216</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13.2267832044271</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.2164767999519</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>13.210075973918</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13.2076330173978</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>13.2092664155008</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>13.2151931585629</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13.2257502045829</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>13.2414013760554</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>13.2627274178574</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>13.2903987684171</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>13.325132501307</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>13.3676366176823</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>13.4185462426781</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13.4783572125628</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>13.5473629899496</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13.6256007729752</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>13.7128120262665</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>13.8084214532614</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13.9115367582412</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>14.0209696255015</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14.1352763968038</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14.2528151153275</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14.3718140391272</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14.490445552063</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.6068988188862</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>14.7194447598899</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14.8264880748396</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>14.926603030815</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>15.0185522159116</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>15.1012899721243</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15.1739542631616</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15.2358519298382</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>15.2864424653606</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>15.3253246631714</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>15.3522290080872</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>15.3670168849217</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>15.3696859797119</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>15.3603799623869</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>15.3393998139841</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>15.307213989943</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>15.2644648847775</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>15.2119696132906</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15.1507137646587</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15.0818373771043</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>15.006612865727</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>14.926415037328</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>14.8426837139787</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>14.7568799491444</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>14.6704374328045</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>14.5847114600142</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>14.5009286762739</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14.4201414929765</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>14.3431913415166</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>14.2706846347139</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>14.2029843733721</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>14.1402188365075</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>14.0823069133716</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>14.028997674872</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>13.9799200913206</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>13.9346376803284</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>13.8927024796226</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>13.8537031034343</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>13.8173026536883</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>13.7832637177994</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>13.7514593269148</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13.7218702851745</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>13.6945704553525</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13.6697022327329</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13.6474445515271</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13.6279755244168</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>13.6114315045266</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>13.5978642607926</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>13.5871982558355</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>13.5791907293006</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13.5733982131073</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13.5691538319056</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>13.5655598396023</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13.5614990790501</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>13.5556675014262</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13.5466278416675</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13.532882367409</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13.5129606072874</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>13.4855163789275</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>13.449427484731</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>13.4038912165414</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>13.3485092143495</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>13.2833560160708</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>13.2090266037672</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>13.1266593794462</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>13.0379324061602</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12.9450324629526</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>12.8505983377841</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.7576415604833</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>12.6694491855228</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>12.5894740557949</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.5212181260357</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.4681139973485</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.4334090752669</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12.4200560388666</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12.4306128821195</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.4671558307652</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.5312089315109</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.6236947917658</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12.7449113451023</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12.8945391306771</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13.0716821119726</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>13.2749425723943</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>13.5025274755781</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13.7523804095622</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>14.0223304281834</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>14.3102472593543</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>14.6141917695795</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>14.9325512772682</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>15.2641510469507</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15.6083356910147</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>15.9650169003719</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>16.3346866551911</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>16.7183976110328</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>17.1177145014548</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>17.5346419829276</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>17.9715353147895</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>18.4310006431418</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>18.9157915069314</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>19.4287076357976</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>19.9725014152123</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>20.5497968628557</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>21.1630257204297</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>21.8143850724966</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>22.5058202212938</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>23.2390348640212</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24.0155277377244</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>24.8366510035388</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>25.7036812270631</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>26.6178895498967</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>27.5805942982191</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>28.5931775558985</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>29.6570476100135</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30.7735316318982</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>31.9436868184407</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.168022254022</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>34.446127080126</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>35.7762062150461</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>37.1545460459116</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>38.5749866491671</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>40.0285501473155</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>41.5034016030854</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>42.9852480951529</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44.4581504332924</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>45.9056151091044</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>47.3117936368057</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>48.6626284079786</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>49.946819337146</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>51.1565243292442</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>52.2877412928609</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>53.3403505459898</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>54.3178274512276</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>55.2266666576657</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>56.0755869425069</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>56.8746025182036</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>57.6340480401995</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>58.3636288069254</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>59.0715324041092</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>59.7635800783765</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>60.4423803736018</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>61.1066070145517</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>61.7507437610017</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>62.3655591286532</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>62.9392145111609</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>63.4586773851654</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>63.9111348523215</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>64.2852105125004</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>64.5718759835894</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>64.7650120469472</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>64.8616205872541</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>64.8617216496611</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>64.7679924879787</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>64.5852191201771</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>64.3196371644937</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>63.9782391672695</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>63.5681217129205</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>63.0959376979678</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>62.5675051414787</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>61.9876000226907</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>61.3599267380184</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>60.6872247049425</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>59.9714479223438</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>59.2139547608144</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>58.4156642520409</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>57.5771610852048</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>56.6987536592334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>55.7805024469932</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>54.8222390253679</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>53.8235917440788</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>52.7840257934574</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>51.7028970592261</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>50.5795129900952</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>49.4131898232692</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>48.2032920150548</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>46.949235452255</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>45.6504349971717</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>44.3061884793793</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>42.9155171927816</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>41.4770138445005</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>39.9887604149863</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>38.4483618989117</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>36.8531095449098</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>35.2002581371376</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>33.4873905546863</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>31.7128709753387</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>29.8765008972438</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>27.9805221713642</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>26.0307370643532</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>24.0371162925117</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>22.0135174079098</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>19.9766928870795</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>17.9449799351765</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>15.9369897102505</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>13.9704991329471</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>12.0616523059</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>10.2245030840462</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8.4708744842902</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>6.81047314745362</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>5.25117649551381</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.79940457012178</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2.46049471492695</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.23901041221436</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.138928623601945</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-0.836346053367436</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-1.68419779897478</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-2.40326137220453</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-2.99397274942836</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-3.45888250958691</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-3.80250778024477</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-4.03080261194014</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-4.15049786490875</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-4.16851820338751</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-4.09157910107793</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-3.92598972572156</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-3.67763373230423</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-3.35205579270039</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-2.95455910719465</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-2.49024370133968</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-1.96399799885434</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-1.38058907071952</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-0.745032077028494</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-0.063143148357593</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.658136928607114</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.41092852818847</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2.18700006649272</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2.97847177158954</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3.77839944307818</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>4.58109983648732</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>5.38217220890537</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>6.17824674703936</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6.96654173192259</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>7.74433511906067</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>8.50845659385088</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>9.25489002462836</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>9.97855093630314</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>10.6732767056716</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>11.3320495967726</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>11.9474776640599</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>12.5125651112077</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>13.0217326635672</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>13.4718811324167</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>13.8631492112879</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>14.1989950534239</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>14.4853952023521</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>14.7293532849378</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>14.9372262160791</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>15.113234970081</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>15.2582802739874</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>15.3692894728317</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>15.4394029750319</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>15.4589840262168</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>15.4171337390079</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>15.3034960993459</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>15.1102455956655</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>14.8338444623121</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>14.4759635815829</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>14.0433836420871</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>13.5471624082107</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>13.0014180222455</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>12.4219880543436</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>11.8251538201121</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>11.2265567406916</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>10.6403758125164</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>10.0787802519579</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>9.5516176131133</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>9.06625233922303</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>8.62745712518058</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>8.23730680052835</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>7.89511649315392</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>7.59753047569053</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>7.33884711948117</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>7.11158344883472</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>6.90720970077711</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>6.71695784527708</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>6.53262072104235</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>6.34728621654837</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>6.15597056347861</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>5.95611233252084</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>5.74787091017915</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>5.53416627983566</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>5.32042132383646</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>5.1140173021251</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>4.92352369749476</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>4.75779633317153</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>4.62504819752311</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>4.53199136964373</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>4.4831339737249</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>4.48029869644739</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>4.5224098221142</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>4.60557140324735</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>4.72342808984567</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>4.86776434484814</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>5.02926456203115</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>5.19833636269643</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>5.36589968333121</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>5.52406403009213</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>5.66664560775899</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>5.7895022016646</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>5.89067660257763</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>5.9703347560139</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>6.03047082066618</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>6.07435938686537</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>6.10580415123333</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>6.12834210147121</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>6.14461436188756</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>6.15604808362108</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>6.16286770523608</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>6.16436139956687</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>6.15929698545348</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>6.1463889698134</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>6.12474062020552</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>6.09420943170644</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>6.05566599723848</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>6.01113367422995</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>5.96380968821422</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>5.91797808288062</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>5.87883192274233</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>5.85222698112458</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>5.8443922018879</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>5.86162358729475</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>5.90998762681564</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>5.995057698709</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>6.12170207955744</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>6.29393575131412</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>6.5148409617365</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>6.78655456113281</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>7.11031456285403</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>7.48655487719554</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>7.91503591271395</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>8.39499932856456</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>8.92533689329361</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>9.50476530014056</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>10.1320002062399</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>10.8059233604127</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>11.5257365200425</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>12.2910952325137</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>13.1022148261923</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>13.9599405206273</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>14.8657739326459</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>15.8218498950545</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>16.830860531798</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>17.895927545457</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>19.020427937633</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>20.2077821740249</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>21.4612165914324</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>22.7835132120099</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>24.1767593643352</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>25.6421037623287</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>27.1794984202266</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>28.7872979637492</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>30.4614927981018</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>32.1946195154716</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>33.9748912777903</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>35.7861174859744</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>37.6084959427699</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>39.4199856992459</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>41.1979139045508</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>42.9205470702623</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>44.5684486491221</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>46.1255268928254</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>47.5797463431964</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>48.9235428828207</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>50.1540847408755</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>51.2735823533924</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>52.2896124935173</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>53.2150411839869</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>54.0671895454694</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>54.866340687941</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>55.6339543606749</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>56.3909162632902</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>57.1560278477953</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>57.9448381789028</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>58.7688224204953</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>59.6348139737416</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>60.5445703876156</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>61.494498814633</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>62.4757518653398</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>63.4748590593389</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>64.4748288967082</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>65.4565056622676</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>66.3999658317866</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>67.2858030278697</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>68.0962156176438</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>68.8158573637068</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>69.4324340043044</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>69.9370341549796</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>70.3241868806159</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>70.5916519054643</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>70.7399695998442</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>70.7718147042363</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>70.6911948260426</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>70.5025141805486</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>70.2095844043908</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>69.8148567889086</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>69.3191836408048</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>68.7221161360739</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>68.022479714691</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>67.2189864473097</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>66.3107654446331</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>65.297768617435</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>64.1810458307206</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>62.9629014761964</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>61.6469531035855</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>60.238116763328</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>58.7425445012541</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>57.167528226785</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>55.5213356445822</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>53.8128703438369</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>52.0510618565826</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>50.244056701763</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>48.3984452770953</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>46.5187540296641</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>44.6073045312321</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>42.6644216007949</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>40.688909544504</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>38.6786979826505</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>36.6315729413949</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>34.5459523016348</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>32.4217247737827</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>30.261151702974</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>28.0696423770232</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>25.8560621960785</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>23.6323985347147</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>21.4129327808015</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>19.2132175964962</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>17.0491136858276</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>14.9360420357543</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>12.8885224949467</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>10.9200051125081</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>9.04295418099077</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>7.26911376041241</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>5.60986612878573</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>4.07659034184439</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>2.6809360435671</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>1.43494622308527</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.350989041486397</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-0.558510194159677</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>-1.28151227612761</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-1.80698441150944</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>-2.12587382873583</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>-2.23262658415581</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>-2.12692790927825</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>-1.81491679358475</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>-1.30947690803053</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>-0.629761571634983</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.199730891152637</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.15029096733716</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>2.19021480850736</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>3.28609213951633</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>4.40421626573988</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>5.51215170579929</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>6.58042403122051</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>7.58420917354303</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>8.50479522350537</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>9.33048328948317</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>10.056700733026</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>10.6855128531007</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>11.2249304087388</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>11.6881347537168</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>12.0924913984537</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>12.4582812028034</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>12.8072010415399</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>13.1607424002235</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>13.5385785909397</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>13.9570954312455</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>14.428189125992</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>14.9584297903695</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>15.5486535008367</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>16.1940056715586</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>16.8844196370667</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>17.6054815859982</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>18.3396108940949</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>19.0674759078744</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>19.7695587868603</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>20.4277391145232</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>21.0266611382498</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>21.5545962109604</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>22.0036743376224</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>22.3696413224124</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>22.6514237107111</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>22.8505902527239</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>22.9704827430252</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>23.014949741627</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>22.9871422029867</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>22.8888327703014</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>22.72042176307</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>22.4817880633378</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>22.173795313321</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>21.7996455178875</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>21.3654583653534</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>20.8801087637296</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>20.3546009446711</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>19.8012188135425</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>19.2326398341682</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>18.6611445915934</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>18.0979913822347</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>17.5529471999638</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>17.0339039023161</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>16.5465352990419</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>16.0940593293395</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>15.6772218187976</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>15.2945469501975</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>14.9427990974381</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>14.6175582906301</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>14.3138188681491</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>14.0265444248733</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>13.7511371571435</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>13.4838019716186</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>13.2218027433437</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>12.9636168583997</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>12.7089932117859</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>12.4589116514552</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>12.2154365668557</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>11.9814608428623</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>11.7603490543995</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>11.5555051479817</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>11.3699041324563</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>11.2056372966857</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>11.0635280783714</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>10.9428848883782</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>10.8414687792887</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>10.7557520129269</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>10.6814886634206</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>10.6144947675939</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>10.5514147489644</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>10.4902271433289</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>10.4303177634967</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>10.3720870348098</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>10.3162522806697</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>10.2631569544453</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>10.2123581712409</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>10.1625731684349</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>10.1119076405617</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>10.0582402082989</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>9.99965258837004</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>9.9348265104278</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>9.86335805268925</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>9.78596361487461</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>9.70456931769436</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>9.62228836887317</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>9.54329990959536</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>9.47264875561088</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>9.41598880454413</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>9.37929418155162</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>9.3685618452666</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>9.38952762148673</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>9.44741460264447</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>9.54672873636159</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>9.69111160870888</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>9.88325543750736</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>10.1248806538253</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>10.416772521892</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>10.7588700979308</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>11.1503983046396</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>11.5900319206405</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>12.0760790927682</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>12.6066719867967</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>13.1799535045241</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>13.7942510996869</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>14.4482307852461</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>15.1410259374606</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>15.8723365982161</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>16.6424960646477</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>17.4525028138481</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>18.3040171002345</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>19.1993226952124</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>20.1412551985155</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>21.1330992782447</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>22.1784582251513</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>23.2811002731119</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>24.4447867773401</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>25.6730863531548</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>26.9691733283746</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>28.3355881181928</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>29.7738782062416</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>31.2839760411245</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>32.8632759546297</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>34.5056853437897</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>36.2011021463773</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>37.9355707740969</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>39.6920428451377</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>41.4515049129076</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>43.1942295640794</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>44.9009619502055</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>46.5539226163978</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>48.1375721109955</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>49.6391384952613</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>51.0489585729861</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>52.36073012217</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>53.571764555485</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>54.6831750071369</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>55.6997377601996</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>56.6292161826696</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>57.4812293344812</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>58.2659533587647</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>58.9929290810204</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>59.6701398037139</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>60.303422842889</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>60.8962120463313</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>61.4495803496216</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>61.9625520808755</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>62.4326575141842</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>62.8566815804819</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>63.2315176306904</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>63.5550034199904</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>63.8266122701814</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>64.0478984856467</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>64.2226406535831</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>64.3566773035042</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>64.4574787377758</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>64.5335435587621</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>64.5937484520027</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>64.6468005248848</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>64.7008931940866</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>64.7635294175802</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>64.8413549730258</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>64.9398636097358</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>65.0629588175759</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>65.2124552970732</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>65.3876194520443</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>65.5847944413258</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>65.7970666254819</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>66.0139017059595</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>66.2208077847327</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>66.3992652419385</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>66.5271704746598</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>66.5798560298292</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>66.5315600615059</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>66.3571336457934</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>66.0337755207106</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>65.542623423763</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>64.8700770031744</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>64.0087562979001</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>62.9580017814814</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>61.7238192063764</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>60.3182149724498</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>58.7579745833728</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>57.0630575697319</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>55.2548485002642</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>53.3544957609709</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>51.3815141811601</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>49.3527575675331</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>47.2818029086005</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>45.1787378922164</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>43.0503101153235</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>40.9003808560721</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>38.7306300281373</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>36.5414815419322</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>34.3332279636764</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>32.1072494819915</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>29.86705482867</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>27.6188303641722</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>25.3713883535603</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>23.1356616407245</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>20.9239928755048</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>18.7494316056396</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>16.6251775231294</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>14.5642367637729</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>12.5792993318309</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>10.6828004851057</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>8.88709783722318</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>7.20467995319106</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>5.64832175210844</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>4.23111597132025</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>2.96633525924271</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>1.86711192233219</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0.945959514495119</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0.214111662387889</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>-0.319534893282722</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>-0.650000736192535</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>-0.777875630175014</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>-0.710304975317499</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>-0.461027191938765</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>-0.0496775940433594</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.499321257124844</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>1.15804551394024</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>1.89640458296743</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>2.68349798713612</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>3.48901925259701</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>4.28471189483145</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>5.04581051440928</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>5.75230870490477</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>6.38983581931967</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>6.94998905415959</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>7.43016474632914</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>7.833070133951</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>8.16604358959002</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>8.44020826113454</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>8.66946775421867</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>8.86938422640211</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>9.05600084578099</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>9.24467837126664</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>9.44901799085437</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>9.67994071342994</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>9.9449851649996</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>10.247869744819</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>10.5883435379262</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>10.962326300553</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>11.3623142925437</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>11.7780077220701</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>12.1970976826636</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>12.6061402570115</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>12.9915367658249</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>13.3408089020478</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>13.6441584844704</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>13.895755547714</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>14.0941712835265</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>14.2419543959023</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>14.3447270505505</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>14.4101292029004</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>14.446782386489</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>14.4633127103613</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>14.4673827170255</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>14.4647800794987</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>14.4589002508777</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>14.4509211753247</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>14.4404665441177</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>14.4263031069229</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>14.4068424209504</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>14.3804467982879</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>14.3455953446586</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>14.3009607308176</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>14.245436108927</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>14.1781422261351</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>14.098437599337</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>14.0059489611681</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>13.9006322774546</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>13.7828020023441</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>13.6529132926045</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>13.5110409562753</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>13.3565296282037</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>13.1882376884813</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>13.0050963154351</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>12.8065221496726</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>12.5925909540431</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>12.3640721043638</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>12.1224084908477</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>11.8696880458073</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>11.6086161124276</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>11.3424732071538</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>11.0750361849221</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>10.8104489487807</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>10.5530426786392</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>10.3071173854275</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>10.0767030262032</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>9.86531941894861</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>9.67575118119581</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>9.50984844060826</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>9.36835744892563</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>9.2507789924674</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>9.15525068161694</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>9.0784755106729</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>9.015865371588</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>8.9622146151</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>8.91286093855672</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>8.86466389036327</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>8.81629052066789</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>8.76797525733888</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>8.72110954349144</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>8.67784354658722</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>8.64061090714745</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>8.6114747762316</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>8.59160482910745</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>8.5811694693155</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>8.57951486005169</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>8.5854373692081</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>8.59746530123486</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>8.61410794467164</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>8.63405356850374</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>8.65631174166233</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>8.68030369445075</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>8.7059093863917</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>8.7334821176605</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>8.76384127980277</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>8.79825171836592</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>8.83839500118193</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>8.88633464434953</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>8.94447489005531</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>9.01551137731971</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>9.10237196741944</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>9.20814681391878</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>9.33600824473845</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>9.48912298401983</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>9.67056152269108</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>9.88321170847895</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>10.1297051823741</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>10.4123651672856</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>10.7331815463366</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>11.0938142778296</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>11.4956201966816</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>11.9396928462784</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>12.4269016743636</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>12.9579169814064</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>13.5332114302498</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>14.1530374816646</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>14.8173902440992</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>15.5259726828213</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>16.2781816632382</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>17.07312882066</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>17.9097024514512</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>18.7866686648355</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>19.7028036400791</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>20.6570441656134</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>21.6486403699999</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>22.6772927256821</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>23.7432553976344</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>24.847390058197</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>25.9911581095717</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>27.1765438250459</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>28.4059036999769</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>29.6817289526376</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>31.0062415403872</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>32.3806329176788</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>33.8038855633479</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>35.2715942023928</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>36.7754200093593</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>38.3034101424253</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>39.840949781735</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>41.3720008028565</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>42.8803571671649</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>44.3507404998031</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>45.7696425638761</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>47.1258915136256</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>48.41097985544</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>49.6192620394054</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>50.7482038554366</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>51.7987757221386</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>52.775730776212</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>53.6873363841496</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>54.5444641930306</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>55.3593289481177</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>56.1442061526807</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>56.9103286682205</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>57.6670539560897</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>58.4213249426428</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>59.1774057643352</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>59.9368483882115</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>60.6986283210166</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>61.4593670647954</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>62.2135310631306</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>62.9535054198919</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>63.669562695039</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>64.3499209914791</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>64.9811088987733</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>65.5486927594389</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>66.0382564482956</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>66.4364682253548</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>66.732088390061</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>66.9168107843647</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>66.9858670320936</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>66.9383492403459</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>66.7772288860609</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>66.5090739607292</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>66.1434961388088</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>65.6923906520168</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>65.1690547903888</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>64.5872733406322</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>63.9604208172201</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>63.3005564430771</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>62.6174633499416</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>61.917686740532</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>61.2037651184896</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>60.4738628695683</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>59.72189926428</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>58.9381421647846</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>58.1101590590697</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>57.2239916611566</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>56.2654263071721</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>55.2212577576628</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>54.0804679400791</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>52.8352093314073</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>51.4813862071358</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>50.0186309869285</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>48.4496994654289</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>46.7795555829792</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>45.0144495983892</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>43.1611719026174</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>41.2265451080295</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>39.2171483295761</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>37.1392359743638</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>34.9988038558547</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>32.8017602793089</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>30.5541792195456</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>28.2626658543201</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>25.9349431397159</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>23.5806825686268</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>21.2122468069191</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>18.8448457878008</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>16.4959678637331</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>14.1843608819473</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>11.9289031483287</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>9.74759068765154</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>7.65676251981656</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>5.670612202882</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>3.800984750297</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>2.05742639514907</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>0.447435326296723</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>-1.02314914249908</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>-2.34968569186656</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>-3.52826407075824</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>-4.55529228664516</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>-5.4271889251036</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>-6.1402201807879</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>-6.69051023921505</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>-7.07424872381149</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>-7.28812669913777</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>-7.3300412672808</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>-7.20006415130571</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>-6.90153831337985</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>-6.4420411412148</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>-5.8339676816976</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>-5.09462973750909</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>-4.24591002784842</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>-3.31358218429567</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>-2.326416918595</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>-1.31517250745305</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>-0.311534832508602</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>0.652958272470308</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>1.5479923120483</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>2.34561017376609</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>3.02167802539611</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>3.55795743467732</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>3.94450483412646</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>4.18164547297175</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>4.28090551958432</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>4.26461291956637</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>4.1641610346067</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>4.0171652331849</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>3.86381272090355</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>3.74285085714424</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>3.68796414416856</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>3.72525722507102</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>3.87206020751605</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>4.13682157713092</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>4.51973065708837</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>5.01376230320807</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>5.6059199002094</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>6.27853338323181</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>7.01053663207679</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>7.77869776127126</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>8.55880290307649</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>9.32679959971278</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>10.0598955647268</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>10.737589501495</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>11.3425880948705</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>11.8615429589317</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>12.285534189038</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>12.6102458442732</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>12.8358260452219</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>12.9664861798058</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>13.0099348833264</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>12.976719313754</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>12.8794668025588</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>12.7319757601602</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>12.5481625101568</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>12.3409698679583</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>12.1213882360899</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>11.8977242705099</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>11.6752186240322</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>11.4560762309536</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>11.2399188531542</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>11.0245764426602</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>10.8070016082506</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>10.5840410446967</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>10.3529626336888</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>10.1118762338381</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>9.86018303321454</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>9.59893303644588</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>9.330834281295</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>9.05983544149852</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>8.79045099383589</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>8.52706764949463</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>8.27339496443836</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>8.03212430262547</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>7.80479251088038</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>7.59181209028367</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>7.39261769948696</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>7.20588027984254</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>7.02974867039145</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>6.86208983682055</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>6.70070949750631</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>6.54354297168629</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>6.38881099234579</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>6.23513781467451</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>6.08163054020484</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>5.92792014187095</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>5.77416632462662</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>5.62102946358928</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>5.46961279560865</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>5.32137706196754</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>5.17802932899789</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>5.04138955408174</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>4.91324475556464</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>4.7952671370063</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>4.68927486772081</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>4.597952219891</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>4.52545597336181</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>4.47742065297325</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>4.4606410092587</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>4.48261525364166</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>4.55074849337048</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>4.67130772090434</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>4.84837364348849</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>5.08285144723721</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>5.37179791551799</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>5.70842005015458</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>6.08272274173525</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>6.48255124637595</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>6.89479348123291</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>7.30655637880243</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>7.70618708670016</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>8.08406037285807</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>8.4330960484754</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>8.74900425669612</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>9.03028214345775</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>9.27800300268964</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>9.49544900382429</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>9.68764194858203</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>9.86082446231099</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>10.0219382365971</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>10.1781381707567</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>10.3363733507317</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>10.5030604607315</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>10.683880323678</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>10.8837581381746</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>11.1070144696254</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>11.3574247705438</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>11.6379589722943</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>11.9504087477468</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>12.2952332582631</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>12.6716601594234</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>13.0779165986255</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>13.5115043762582</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>13.9694869332376</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>14.4487873741139</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>14.9465086950189</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>15.4602756442554</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>15.9885727413562</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>16.5310353094735</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>17.0886510051929</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>17.6638438519273</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>18.2604308705498</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>18.8834558034111</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>19.5389126768573</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>20.2333747034085</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>20.9735439881253</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>21.7657394866467</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>22.6153503264431</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>23.5263000542963</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>24.5005855237339</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>25.5379568957602</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>26.6357852978923</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>27.7891300063556</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>28.9909830166518</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>30.2326465339663</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>31.5041907438709</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>32.7949422198722</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>34.0939629141668</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>35.3904918529924</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>36.6743337020222</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>37.9361889250734</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>39.167929030379</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>40.3628273975231</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>41.5157603059501</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>42.6233897900016</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>43.684322706133</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>44.6992077987031</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>45.6707024156776</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>46.6032425095253</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>47.5025935448462</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>48.3752214481771</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>49.2275681343597</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>50.0653309391599</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>50.8928346602543</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>51.7125598073633</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>52.5248581529169</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>53.3278398250179</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>54.1172615120081</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>54.8861278819294</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>55.6241332805938</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>56.317617275032</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>56.9504295066075</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>57.5054281329665</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>57.9661449558293</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>58.3182962940923</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>58.5509561600572</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>58.6573008806156</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>58.6349024573081</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>58.4856009534084</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>58.2150281796475</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>57.8318841746059</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>57.3470777999543</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>56.7728291154512</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>56.1218001577524</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>55.4062864125978</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>54.637492135473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="297167633"/>
+        <c:axId val="350173037"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297167633"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350173037"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350173037"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297167633"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>671830</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4699000" y="1790700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7567,7 +12215,7 @@
   <sheetPr/>
   <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7714,85 +12362,85 @@
       </c>
     </row>
     <row r="2" spans="1:45">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>15.291812</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>17.82711612</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>13.98712284</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>16.20357783</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>12.2434618</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>11.4386964</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>14.71301178</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>17.40785</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>12.332382</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>5.50401845</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>7.13262528</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>6.9220183</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>5.6022089</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>7.42499244</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>5.05361158</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>7.40769617</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>6.881559</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>3.7972462</v>
       </c>
       <c r="S2" s="2">
         <v>-7.1433838</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>-6.8451755</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>-7.1333736</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>-8.54954975</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <v>-6.5750815</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="2">
         <v>-6.0738445</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <v>-7.00998425</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="2">
         <v>-3.973681</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="2">
         <v>-6.9927402</v>
       </c>
       <c r="AB2" s="2">
@@ -7822,13 +12470,13 @@
       <c r="AJ2" s="2">
         <v>65.739594</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="2">
         <v>31.5931532</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="2">
         <v>33.64663904</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="2">
         <v>31.42128884</v>
       </c>
       <c r="AN2" s="2">
@@ -7968,22 +12616,22 @@
       <c r="AM3" s="2">
         <v>34.1873629428571</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="2">
         <v>29.6243369809524</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="2">
         <v>32.2993284761905</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="2">
         <v>30.8425166095238</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="2">
         <v>32.7291563333333</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="2">
         <v>31.7781311714286</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="2">
         <v>31.1993871904762</v>
       </c>
     </row>
@@ -9665,7 +14313,7 @@
       <c r="K16" s="2">
         <v>18.8038811066667</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>19.2854376</v>
       </c>
       <c r="M16" s="2">
@@ -9817,7 +14465,7 @@
       <c r="P17" s="2">
         <v>21.6970140514286</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>20.96388436</v>
       </c>
       <c r="R17" s="2">
@@ -9838,13 +14486,13 @@
       <c r="W17" s="2">
         <v>11.4437678</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="2">
         <v>10.0181102114286</v>
       </c>
       <c r="Y17" s="2">
         <v>13.6236785785714</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="2">
         <v>15.5913352457143</v>
       </c>
       <c r="AA17" s="2">
@@ -9936,13 +14584,13 @@
       <c r="J18" s="2">
         <v>21.6235901428571</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>23.1867631714286</v>
       </c>
       <c r="L18" s="2">
         <v>23.1405138971429</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>20.3667715561905</v>
       </c>
       <c r="N18" s="2">
@@ -9951,7 +14599,7 @@
       <c r="O18" s="2">
         <v>17.766498792</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>23.9045695161905</v>
       </c>
       <c r="Q18" s="2">
@@ -9984,7 +14632,7 @@
       <c r="Z18" s="2">
         <v>16.3011247466667</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="2">
         <v>11.3039417428571</v>
       </c>
       <c r="AB18" s="2">
@@ -10058,7 +14706,7 @@
       <c r="E19" s="2">
         <v>7.494966975</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>5.18799094857143</v>
       </c>
       <c r="G19" s="2">
@@ -10070,7 +14718,7 @@
       <c r="I19" s="2">
         <v>4.2182840975</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>23.9272142</v>
       </c>
       <c r="K19" s="2">
@@ -10082,7 +14730,7 @@
       <c r="M19" s="2">
         <v>22.7842000828571</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>25.2391821142857</v>
       </c>
       <c r="O19" s="2">
@@ -10094,13 +14742,13 @@
       <c r="Q19" s="2">
         <v>25.4742510742857</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="2">
         <v>23.8195964428571</v>
       </c>
       <c r="S19" s="2">
         <v>14.59429212</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="2">
         <v>17.1465302</v>
       </c>
       <c r="U19" s="2">
@@ -10115,7 +14763,7 @@
       <c r="X19" s="2">
         <v>11.1310199561905</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="2">
         <v>14.4335770857143</v>
       </c>
       <c r="Z19" s="2">
@@ -10243,7 +14891,7 @@
       <c r="U20" s="2">
         <v>13.89631448</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="2">
         <v>15.8827347457143</v>
       </c>
       <c r="W20" s="2">
@@ -10383,7 +15031,7 @@
       <c r="V21" s="2">
         <v>16.1335039352381</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="2">
         <v>12.2434618</v>
       </c>
       <c r="X21" s="2">
@@ -10466,8 +15114,8 @@
   <sheetPr/>
   <dimension ref="A1:B1265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -17108,6 +21756,7 @@
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
